--- a/test/GPT4_test/output_refined_4.xlsx
+++ b/test/GPT4_test/output_refined_4.xlsx
@@ -475,7 +475,7 @@
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col width="5.625" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
     <col width="50.625" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
@@ -999,6 +999,9 @@
           <t>柏林墙</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
           <t>a historical event's encyclopedia articles</t>
@@ -1014,9 +1017,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H11" s="2" t="n"/>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a historical event's encyclopedia articles, titled "Berlin Wall" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Berlin Wall.md</t>
+        </is>
+      </c>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="n"/>
@@ -1040,6 +1051,9 @@
           <t>量子力学</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
           <t>a terminology's encyclopedia articles</t>
@@ -1055,9 +1069,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H12" s="2" t="n"/>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a terminology's encyclopedia articles, titled "Quantum Mechanics" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Quantum Mechanics.md</t>
+        </is>
+      </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="n"/>
@@ -1081,6 +1103,9 @@
           <t>基因工程</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
           <t>a terminology's encyclopedia articles</t>
@@ -1096,9 +1121,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a terminology's encyclopedia articles, titled "Genetic Engineering" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Genetic Engineering.md</t>
+        </is>
+      </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
       <c r="M13" s="2" t="n"/>
@@ -1122,6 +1155,9 @@
           <t>英雄联盟</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>a computer game's encyclopedia articles</t>
@@ -1137,9 +1173,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H14" s="2" t="n"/>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a computer game's encyclopedia articles, titled "League_of_Legends" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/League_of_Legends.md</t>
+        </is>
+      </c>
       <c r="K14" s="2" t="n"/>
       <c r="L14" s="2" t="n"/>
       <c r="M14" s="2" t="n"/>
@@ -1163,6 +1207,9 @@
           <t>我的世界</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
           <t>a computer game's encyclopedia articles</t>
@@ -1178,9 +1225,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H15" s="2" t="n"/>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a computer game's encyclopedia articles, titled "Minecraft" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Minecraft.md</t>
+        </is>
+      </c>
       <c r="K15" s="2" t="n"/>
       <c r="L15" s="2" t="n"/>
       <c r="M15" s="2" t="n"/>
@@ -1204,6 +1259,9 @@
           <t>微软</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
           <t>a company's encyclopedia articles</t>
@@ -1219,9 +1277,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H16" s="2" t="n"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a company's encyclopedia articles, titled "Microsoft Corporation" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Microsoft Corporation.md</t>
+        </is>
+      </c>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="2" t="n"/>
       <c r="M16" s="2" t="n"/>
@@ -1245,6 +1311,9 @@
           <t>苹果</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
           <t>a company's encyclopedia articles</t>
@@ -1260,9 +1329,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a company's encyclopedia articles, titled "Apple Inc." Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Apple Inc..md</t>
+        </is>
+      </c>
       <c r="K17" s="2" t="n"/>
       <c r="L17" s="2" t="n"/>
       <c r="M17" s="2" t="n"/>
@@ -1286,6 +1363,9 @@
           <t>日本</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
           <t>a country's encyclopedia articles</t>
@@ -1301,9 +1381,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H18" s="2" t="n"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a country's encyclopedia articles, titled "Japan" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Japan.md</t>
+        </is>
+      </c>
       <c r="K18" s="2" t="n"/>
       <c r="L18" s="2" t="n"/>
       <c r="M18" s="2" t="n"/>
@@ -1327,6 +1415,9 @@
           <t>美国</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
           <t>a country's encyclopedia articles</t>
@@ -1342,9 +1433,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H19" s="2" t="n"/>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one a country's encyclopedia articles, titled "United States of America" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/United States of America.md</t>
+        </is>
+      </c>
       <c r="K19" s="2" t="n"/>
       <c r="L19" s="2" t="n"/>
       <c r="M19" s="2" t="n"/>
@@ -1368,6 +1467,9 @@
           <t>基于python与yolov8的车牌自动识别系统开发技术报告</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
           <t>IT Report</t>
@@ -1383,9 +1485,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H20" s="2" t="n"/>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one IT Report, titled "Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I20" s="2" t="n"/>
-      <c r="J20" s="2" t="n"/>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Development Technical Report on an Automatic License Plate Recognition System Based on Python and YOLOv8.md</t>
+        </is>
+      </c>
       <c r="K20" s="2" t="n"/>
       <c r="L20" s="2" t="n"/>
       <c r="M20" s="2" t="n"/>
@@ -1409,6 +1519,9 @@
           <t>基于JavaSpring和React的电子商务系统开发技术报告</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
           <t>IT Report</t>
@@ -1424,9 +1537,17 @@
           <t>DocDoc</t>
         </is>
       </c>
-      <c r="H21" s="2" t="n"/>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>I want to write one IT Report, titled "Technical Report on the Development of an E-commerce System Based on Java Spring and React" Could you generate the table of contents for the opinion article and provide a detailed explanation of the dependencies between the items in the table of contents?</t>
+        </is>
+      </c>
       <c r="I21" s="2" t="n"/>
-      <c r="J21" s="2" t="n"/>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>/root/AI4E/lzd/DocDoc/test/GPT4_test/output/DocDoc/Gen/Technical Report on the Development of an E-commerce System Based on Java Spring and React.md</t>
+        </is>
+      </c>
       <c r="K21" s="2" t="n"/>
       <c r="L21" s="2" t="n"/>
       <c r="M21" s="2" t="n"/>
